--- a/statics/js/Flowers Database.xlsx
+++ b/statics/js/Flowers Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="974">
   <si>
     <t>Wedding</t>
   </si>
@@ -858,9 +858,6 @@
     <t>/product-categories/birthday/BP-BIRTH01.html</t>
   </si>
   <si>
-    <t>cat-03</t>
-  </si>
-  <si>
     <t>BP-BIRTH02</t>
   </si>
   <si>
@@ -969,9 +966,6 @@
     <t>/product-categories/birthday/BP-BIRTH10.html</t>
   </si>
   <si>
-    <t>cat-04</t>
-  </si>
-  <si>
     <t>Feast Day</t>
   </si>
   <si>
@@ -1098,9 +1092,6 @@
     <t>/product-categories/feast-day/BP-FEAST10.html</t>
   </si>
   <si>
-    <t>cat-05</t>
-  </si>
-  <si>
     <t>/product-categories/events.html</t>
   </si>
   <si>
@@ -1212,9 +1203,6 @@
     <t>/product-categories/events/BP-EVENT09.html</t>
   </si>
   <si>
-    <t>cat-06</t>
-  </si>
-  <si>
     <t>/product-categories/vip-flowers.html</t>
   </si>
   <si>
@@ -1338,9 +1326,6 @@
     <t>/product-categories/vip-flowers/BP-VIPFL10.html</t>
   </si>
   <si>
-    <t>cat-07</t>
-  </si>
-  <si>
     <t>/product-categories/99-rose.html</t>
   </si>
   <si>
@@ -1434,9 +1419,6 @@
     <t>/product-categories/99-rose/BP-99ROS10.html</t>
   </si>
   <si>
-    <t>cat-08</t>
-  </si>
-  <si>
     <t>/product-categories/love-flowers.html</t>
   </si>
   <si>
@@ -1560,9 +1542,6 @@
     <t>/product-categories/love-flowers/BP-LOVE10.html</t>
   </si>
   <si>
-    <t>cat-09</t>
-  </si>
-  <si>
     <t>/product-categories/basket-arrangements.html</t>
   </si>
   <si>
@@ -1686,9 +1665,6 @@
     <t>/product-categories/basket-arrangements/BP-BARMT10.html</t>
   </si>
   <si>
-    <t>cat-10</t>
-  </si>
-  <si>
     <t>/product-categories/bouquet.html</t>
   </si>
   <si>
@@ -1812,9 +1788,6 @@
     <t>/product-categories/bouquet/BP-BOUQU10.html</t>
   </si>
   <si>
-    <t>cat-11</t>
-  </si>
-  <si>
     <t>/product-categories/rose.html</t>
   </si>
   <si>
@@ -1938,9 +1911,6 @@
     <t>/product-categories/rose/BP-ROSE010.html</t>
   </si>
   <si>
-    <t>cat-12</t>
-  </si>
-  <si>
     <t>/product-categories/lily.html</t>
   </si>
   <si>
@@ -2052,9 +2022,6 @@
     <t>/product-categories/lily/BP-LILY009.html</t>
   </si>
   <si>
-    <t>cat-13</t>
-  </si>
-  <si>
     <t>Sunflowers</t>
   </si>
   <si>
@@ -2151,9 +2118,6 @@
     <t>/product-categories/sunflowers/BP-SUNFL10.html</t>
   </si>
   <si>
-    <t>cat-14</t>
-  </si>
-  <si>
     <t>/product-categories/orchid-kinds.html</t>
   </si>
   <si>
@@ -2277,9 +2241,6 @@
     <t>/product-categories/orchid-kinds/BP-ORCHI10.html</t>
   </si>
   <si>
-    <t>cat-15</t>
-  </si>
-  <si>
     <t>/product-categories/phalaenopsis-orchids.html</t>
   </si>
   <si>
@@ -2371,68 +2332,641 @@
   </si>
   <si>
     <t>/product-categories/phalaenopsis-orchids/BP-PHORC10.html</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>cat13</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>cat14</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>cat15</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>274</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF111111"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
-        <bgColor rgb="FF666666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF999999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2444,33 +2978,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2686,77 +3204,51 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB170"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="A1:J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-    </row>
-    <row r="2" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2771,24 +3263,24 @@
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1">
-        <v>88</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2803,24 +3295,24 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1">
-        <v>80</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2835,24 +3327,24 @@
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1">
-        <v>69</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2867,24 +3359,24 @@
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1">
-        <v>70</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2899,24 +3391,24 @@
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="1">
-        <v>102</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2931,24 +3423,24 @@
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1">
-        <v>70</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2963,24 +3455,24 @@
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1">
-        <v>97</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2995,24 +3487,24 @@
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="1">
-        <v>91</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3027,24 +3519,24 @@
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="1">
-        <v>78</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3059,80 +3551,62 @@
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="1">
-        <v>90</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="9">
-        <v>99</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-    </row>
-    <row r="13" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>228</v>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3141,30 +3615,30 @@
       <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="1">
-        <v>115</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>233</v>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -3173,30 +3647,30 @@
       <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="1">
-        <v>179</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>238</v>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3205,30 +3679,30 @@
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="1">
-        <v>101</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>243</v>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3237,30 +3711,30 @@
       <c r="F16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="1">
-        <v>174</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>248</v>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3269,30 +3743,30 @@
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="1">
-        <v>205</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>253</v>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3301,30 +3775,30 @@
       <c r="F18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="1">
-        <v>180</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>258</v>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3333,30 +3807,30 @@
       <c r="F19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="1">
-        <v>145</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>263</v>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3365,30 +3839,30 @@
       <c r="F20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="1">
-        <v>138</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="G20" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>268</v>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3397,1465 +3871,1375 @@
       <c r="F21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="1">
-        <v>266</v>
-      </c>
-      <c r="H21" s="2" t="s">
+      <c r="G21" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C22" s="9" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="9">
-        <v>133</v>
-      </c>
-      <c r="H22" s="12" t="s">
+      <c r="G22" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-    </row>
-    <row r="23" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="1">
-        <v>99</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="J23" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>813</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="1">
-        <v>101</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="G24" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="J24" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="1">
-        <v>89</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="G25" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="J25" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>816</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="1">
-        <v>121</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="G26" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="J26" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>818</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="1">
-        <v>100</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="J27" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="1">
-        <v>94</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="G28" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="J28" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="1">
-        <v>96</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="G29" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="J29" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>29</v>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="1">
-        <v>98</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="G30" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="J30" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>30</v>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>826</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="1">
-        <v>101</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="J31" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J31" s="7" t="s">
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="D32" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="E32" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="F32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="I32" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="9">
-        <v>319</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="J32" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I32" s="13" t="s">
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="F33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-    </row>
-    <row r="33" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="1">
-        <v>205</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I33" s="8" t="s">
+      <c r="E34" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="F34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="I34" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="1">
-        <v>259</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="I34" s="8" t="s">
+      <c r="E35" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="F35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="I35" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="1">
-        <v>736</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="I35" s="8" t="s">
+      <c r="E36" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="F36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="I36" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="1">
-        <v>202</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="I36" s="8" t="s">
+      <c r="E37" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="F37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="I37" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="1">
-        <v>147</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="I37" s="8" t="s">
+      <c r="E38" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="F38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="I38" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="1">
-        <v>133</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I38" s="8" t="s">
+      <c r="E39" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="F39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="I39" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="1">
-        <v>197</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I39" s="8" t="s">
+      <c r="E40" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="F40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="I40" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="1">
-        <v>156</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="I40" s="8" t="s">
+      <c r="E41" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="F41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="1">
-        <v>167</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="J41" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I41" s="8" t="s">
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="E42" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="F42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="I42" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="J42" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" s="9">
-        <v>121</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
-    </row>
-    <row r="43" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>42</v>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>846</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>360</v>
+      <c r="D43" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="1">
-        <v>152</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43</v>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>848</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>360</v>
+      <c r="D44" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="1">
-        <v>160</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>44</v>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>360</v>
+      <c r="D45" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="1">
-        <v>167</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>45</v>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>851</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>360</v>
+      <c r="D46" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="1">
-        <v>230</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>46</v>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>360</v>
+      <c r="D47" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="1">
-        <v>227</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>47</v>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>360</v>
+      <c r="D48" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" s="1">
-        <v>206</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>48</v>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>857</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>360</v>
+      <c r="D49" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="1">
-        <v>145</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>49</v>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>858</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>360</v>
+      <c r="D50" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" s="1">
-        <v>372</v>
-      </c>
-      <c r="H50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="E51" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="F51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9">
-        <v>50</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="I51" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="11" t="s">
+      <c r="J51" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="9">
-        <v>595</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="14"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="14"/>
-    </row>
-    <row r="52" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>51</v>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>862</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>398</v>
+      <c r="D52" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F52" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G52" s="1">
-        <v>733</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>52</v>
+      <c r="G52" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>864</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>398</v>
+      <c r="D53" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F53" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="1">
-        <v>666</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>53</v>
+      <c r="G53" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>866</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>398</v>
+      <c r="D54" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F54" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G54" s="1">
-        <v>225</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>54</v>
+      <c r="G54" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>398</v>
+      <c r="D55" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F55" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G55" s="1">
-        <v>289</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>55</v>
+      <c r="G55" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>870</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>398</v>
+      <c r="D56" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F56" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G56" s="1">
-        <v>335</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>56</v>
+      <c r="G56" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>872</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>398</v>
+      <c r="D57" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F57" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G57" s="1">
-        <v>485</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>57</v>
+      <c r="G57" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>874</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>398</v>
+      <c r="D58" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F58" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G58" s="1">
-        <v>335</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>58</v>
+      <c r="G58" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>398</v>
+      <c r="D59" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F59" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G59" s="1">
-        <v>362</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>59</v>
+      <c r="G59" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>877</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>398</v>
+      <c r="D60" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" s="1">
-        <v>229</v>
-      </c>
-      <c r="H60" s="2" t="s">
+      <c r="E61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I61" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J61" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9">
-        <v>60</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" s="9">
-        <v>271</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="14"/>
-      <c r="Z61" s="14"/>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="14"/>
-    </row>
-    <row r="62" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>881</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>440</v>
+      <c r="D62" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="1">
-        <v>298</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
+      <c r="G62" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>440</v>
+      <c r="D63" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="1">
-        <v>252</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>63</v>
+      <c r="G63" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>885</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>440</v>
+      <c r="D64" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>80</v>
@@ -4863,1931 +5247,1823 @@
       <c r="F64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G64" s="1">
-        <v>275</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
+      <c r="G64" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>887</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>440</v>
+      <c r="D65" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G65" s="1">
-        <v>251</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
+      <c r="G65" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>889</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>440</v>
+      <c r="D66" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G66" s="1">
-        <v>249</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
+      <c r="G66" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>891</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>440</v>
+      <c r="D67" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G67" s="1">
-        <v>296</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
+      <c r="G67" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>893</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>440</v>
+      <c r="D68" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G68" s="1">
-        <v>266</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
+      <c r="G68" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>894</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>440</v>
+      <c r="D69" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G69" s="1">
-        <v>272</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
+      <c r="G69" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>440</v>
+      <c r="D70" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G70" s="1">
-        <v>413</v>
-      </c>
-      <c r="H70" s="2" t="s">
+      <c r="G70" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I71" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J71" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="9">
-        <v>70</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" s="9">
-        <v>98</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="14"/>
-      <c r="W71" s="14"/>
-      <c r="X71" s="14"/>
-      <c r="Y71" s="14"/>
-      <c r="Z71" s="14"/>
-      <c r="AA71" s="14"/>
-      <c r="AB71" s="14"/>
-    </row>
-    <row r="72" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>71</v>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>472</v>
+      <c r="D72" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G72" s="1">
-        <v>114</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>72</v>
+      <c r="G72" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>899</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>472</v>
+      <c r="D73" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G73" s="1">
-        <v>179</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>73</v>
+      <c r="G73" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>900</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>472</v>
+      <c r="D74" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G74" s="1">
-        <v>101</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>74</v>
+      <c r="G74" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="11" t="s">
-        <v>472</v>
+      <c r="D75" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G75" s="1">
-        <v>174</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>75</v>
+      <c r="G75" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>902</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>472</v>
+      <c r="D76" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G76" s="1">
-        <v>204</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>76</v>
+      <c r="G76" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>904</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="11" t="s">
-        <v>472</v>
+      <c r="D77" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G77" s="1">
-        <v>179</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>77</v>
+      <c r="G77" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>905</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="11" t="s">
-        <v>472</v>
+      <c r="D78" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G78" s="1">
-        <v>144</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>78</v>
+      <c r="G78" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>787</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>472</v>
+      <c r="D79" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G79" s="1">
-        <v>137</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>79</v>
+      <c r="G79" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>908</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>472</v>
+      <c r="D80" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G80" s="1">
-        <v>266</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>80</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C81" s="4" t="s">
+      <c r="G80" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>515</v>
+      <c r="D81" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G81" s="1">
-        <v>103</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
-      <c r="AA81" s="6"/>
-      <c r="AB81" s="6"/>
-    </row>
-    <row r="82" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>81</v>
+      <c r="G81" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>513</v>
+        <v>258</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="11" t="s">
-        <v>514</v>
+      <c r="D82" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G82" s="1">
-        <v>102</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>82</v>
+      <c r="G82" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>911</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>513</v>
+        <v>258</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>514</v>
+      <c r="D83" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G83" s="1">
-        <v>107</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>83</v>
+      <c r="G83" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>913</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>513</v>
+        <v>258</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="11" t="s">
-        <v>514</v>
+      <c r="D84" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G84" s="1">
-        <v>96</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>84</v>
+      <c r="G84" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>513</v>
+        <v>258</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>514</v>
+      <c r="D85" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G85" s="1">
-        <v>109</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>85</v>
+      <c r="G85" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>916</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>513</v>
+        <v>258</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="11" t="s">
-        <v>514</v>
+      <c r="D86" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G86" s="1">
-        <v>91</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>86</v>
+      <c r="G86" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>917</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>513</v>
+        <v>258</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="11" t="s">
-        <v>514</v>
+      <c r="D87" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G87" s="1">
-        <v>92</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>87</v>
+      <c r="G87" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>513</v>
+        <v>258</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>514</v>
+      <c r="D88" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G88" s="1">
-        <v>155</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>88</v>
+      <c r="G88" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>513</v>
+        <v>258</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>514</v>
+      <c r="D89" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G89" s="1">
-        <v>83</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>89</v>
+      <c r="G89" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>513</v>
+        <v>258</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>514</v>
+      <c r="D90" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G90" s="1">
-        <v>155</v>
-      </c>
-      <c r="H90" s="2" t="s">
+      <c r="G90" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="I90" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="9">
-        <v>90</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" s="9">
-        <v>105</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="14"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="14"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="14"/>
-      <c r="Z91" s="14"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="14"/>
-    </row>
-    <row r="92" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>91</v>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>555</v>
+        <v>263</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="11" t="s">
-        <v>556</v>
+      <c r="D92" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G92" s="1">
-        <v>103</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>92</v>
+      <c r="G92" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>555</v>
+        <v>263</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="11" t="s">
-        <v>556</v>
+      <c r="D93" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G93" s="1">
-        <v>133</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>93</v>
+      <c r="G93" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>555</v>
+        <v>263</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="11" t="s">
-        <v>556</v>
+      <c r="D94" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G94" s="1">
-        <v>102</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>94</v>
+      <c r="G94" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>555</v>
+        <v>263</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="11" t="s">
-        <v>556</v>
+      <c r="D95" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G95" s="1">
-        <v>128</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>95</v>
+      <c r="G95" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>555</v>
+        <v>263</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D96" s="11" t="s">
-        <v>556</v>
+      <c r="D96" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G96" s="1">
-        <v>131</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>96</v>
+      <c r="G96" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>555</v>
+        <v>263</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>556</v>
+      <c r="D97" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G97" s="1">
-        <v>116</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>97</v>
+      <c r="G97" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>783</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>555</v>
+        <v>263</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="11" t="s">
-        <v>556</v>
+      <c r="D98" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G98" s="1">
-        <v>115</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>98</v>
+      <c r="G98" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>555</v>
+        <v>263</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="11" t="s">
-        <v>556</v>
+      <c r="D99" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G99" s="1">
-        <v>184</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>99</v>
+      <c r="G99" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>791</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>555</v>
+        <v>263</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="11" t="s">
-        <v>556</v>
+      <c r="D100" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G100" s="1">
-        <v>100</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="9">
-        <v>100</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="C101" s="9" t="s">
+      <c r="G100" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="F101" s="9" t="s">
+      <c r="D101" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G101" s="9">
-        <v>460</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-      <c r="R101" s="14"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="14"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="14"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="14"/>
-      <c r="Y101" s="14"/>
-      <c r="Z101" s="14"/>
-      <c r="AA101" s="14"/>
-      <c r="AB101" s="14"/>
-    </row>
-    <row r="102" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>101</v>
+      <c r="G101" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>797</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>597</v>
+        <v>268</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="11" t="s">
-        <v>598</v>
+      <c r="D102" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G102" s="1">
-        <v>103</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>102</v>
+      <c r="G102" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>597</v>
+        <v>268</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G103" s="1">
-        <v>103</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>103</v>
+      <c r="G103" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>909</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>597</v>
+        <v>268</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="11" t="s">
-        <v>598</v>
+      <c r="D104" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G104" s="1">
-        <v>91</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>104</v>
+      <c r="G104" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>597</v>
+        <v>268</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="11" t="s">
-        <v>598</v>
+      <c r="D105" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G105" s="1">
-        <v>155</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>105</v>
+      <c r="G105" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>921</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>597</v>
+        <v>268</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="11" t="s">
-        <v>598</v>
+      <c r="D106" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G106" s="1">
-        <v>207</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>106</v>
+      <c r="G106" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>931</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>597</v>
+        <v>268</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="11" t="s">
-        <v>598</v>
+      <c r="D107" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G107" s="1">
-        <v>110</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>107</v>
+      <c r="G107" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>912</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>597</v>
+        <v>268</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="11" t="s">
-        <v>598</v>
+      <c r="D108" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G108" s="1">
-        <v>299</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>108</v>
+      <c r="G108" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>934</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>597</v>
+        <v>268</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D109" s="11" t="s">
-        <v>598</v>
+      <c r="D109" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G109" s="1">
-        <v>99</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>109</v>
+      <c r="G109" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>597</v>
+        <v>268</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>598</v>
+      <c r="D110" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G110" s="1">
-        <v>95</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="15">
-        <v>110</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>639</v>
-      </c>
-      <c r="C111" s="15" t="s">
+      <c r="G110" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D111" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="F111" s="15" t="s">
+      <c r="D111" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G111" s="15">
-        <v>107</v>
-      </c>
-      <c r="H111" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="I111" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-      <c r="P111" s="18"/>
-      <c r="Q111" s="18"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
-      <c r="T111" s="18"/>
-      <c r="U111" s="18"/>
-      <c r="V111" s="18"/>
-      <c r="W111" s="18"/>
-      <c r="X111" s="18"/>
-      <c r="Y111" s="18"/>
-      <c r="Z111" s="18"/>
-      <c r="AA111" s="18"/>
-      <c r="AB111" s="18"/>
-    </row>
-    <row r="112" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>111</v>
+      <c r="G111" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>935</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>639</v>
+        <v>273</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>640</v>
+      <c r="D112" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G112" s="1">
-        <v>132</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>112</v>
+      <c r="G112" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>937</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>639</v>
+        <v>273</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>640</v>
+      <c r="D113" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G113" s="1">
-        <v>103</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>113</v>
+      <c r="G113" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>639</v>
+        <v>273</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="11" t="s">
-        <v>640</v>
+      <c r="D114" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G114" s="1">
-        <v>103</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>114</v>
+      <c r="G114" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>898</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>639</v>
+        <v>273</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="11" t="s">
-        <v>640</v>
+      <c r="D115" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G115" s="1">
-        <v>115</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>115</v>
+      <c r="G115" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>793</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>639</v>
+        <v>273</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="11" t="s">
-        <v>640</v>
+      <c r="D116" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G116" s="1">
-        <v>96</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>116</v>
+      <c r="G116" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>639</v>
+        <v>273</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="11" t="s">
-        <v>640</v>
+      <c r="D117" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G117" s="1">
-        <v>101</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>117</v>
+      <c r="G117" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>939</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>639</v>
+        <v>273</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>640</v>
+      <c r="D118" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G118" s="1">
-        <v>101</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>118</v>
+      <c r="G118" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>940</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>639</v>
+        <v>273</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="11" t="s">
-        <v>640</v>
+      <c r="D119" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G119" s="1">
-        <v>105</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="E120" s="9" t="s">
+      <c r="G119" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G120" s="9">
-        <v>108</v>
-      </c>
-      <c r="H120" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="14"/>
-      <c r="R120" s="14"/>
-      <c r="S120" s="14"/>
-      <c r="T120" s="14"/>
-      <c r="U120" s="14"/>
-      <c r="V120" s="14"/>
-      <c r="W120" s="14"/>
-      <c r="X120" s="14"/>
-      <c r="Y120" s="14"/>
-      <c r="Z120" s="14"/>
-      <c r="AA120" s="14"/>
-      <c r="AB120" s="14"/>
-    </row>
-    <row r="121" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>120</v>
+      <c r="G120" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>943</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>677</v>
+        <v>942</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>679</v>
+        <v>667</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>129</v>
@@ -6795,31 +7071,31 @@
       <c r="F121" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G121" s="1">
-        <v>95</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>121</v>
+      <c r="G121" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>677</v>
+        <v>942</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>679</v>
+        <v>667</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>131</v>
@@ -6827,31 +7103,31 @@
       <c r="F122" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G122" s="1">
-        <v>100</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>122</v>
+      <c r="G122" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>944</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>677</v>
+        <v>942</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>679</v>
+        <v>667</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>132</v>
@@ -6859,31 +7135,31 @@
       <c r="F123" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G123" s="1">
-        <v>99</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>123</v>
+      <c r="G123" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>945</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>677</v>
+        <v>942</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>679</v>
+        <v>667</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>134</v>
@@ -6891,31 +7167,31 @@
       <c r="F124" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G124" s="1">
-        <v>116</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>124</v>
+      <c r="G124" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>946</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>677</v>
+        <v>942</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>679</v>
+        <v>667</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>135</v>
@@ -6923,31 +7199,31 @@
       <c r="F125" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G125" s="1">
-        <v>80</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>125</v>
+      <c r="G125" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>947</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>677</v>
+        <v>942</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>679</v>
+        <v>667</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>137</v>
@@ -6955,31 +7231,31 @@
       <c r="F126" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G126" s="1">
-        <v>86</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>126</v>
+      <c r="G126" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>948</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>677</v>
+        <v>942</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>679</v>
+        <v>667</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>139</v>
@@ -6987,31 +7263,31 @@
       <c r="F127" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G127" s="1">
-        <v>96</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="I127" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="128" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>127</v>
+      <c r="G127" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>949</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>677</v>
+        <v>942</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>679</v>
+        <v>667</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>141</v>
@@ -7019,31 +7295,31 @@
       <c r="F128" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G128" s="1">
-        <v>101</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="I128" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="129" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>128</v>
+      <c r="G128" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>923</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>677</v>
+        <v>942</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>679</v>
+        <v>667</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>143</v>
@@ -7051,419 +7327,383 @@
       <c r="F129" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G129" s="1">
+      <c r="G129" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H129" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="130" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G130" s="9">
-        <v>100</v>
-      </c>
-      <c r="H130" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="K130" s="14"/>
-      <c r="L130" s="14"/>
-      <c r="M130" s="14"/>
-      <c r="N130" s="14"/>
-      <c r="O130" s="14"/>
-      <c r="P130" s="14"/>
-      <c r="Q130" s="14"/>
-      <c r="R130" s="14"/>
-      <c r="S130" s="14"/>
-      <c r="T130" s="14"/>
-      <c r="U130" s="14"/>
-      <c r="V130" s="14"/>
-      <c r="W130" s="14"/>
-      <c r="X130" s="14"/>
-      <c r="Y130" s="14"/>
-      <c r="Z130" s="14"/>
-      <c r="AA130" s="14"/>
-      <c r="AB130" s="14"/>
-    </row>
-    <row r="131" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>130</v>
+      <c r="G130" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>952</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>710</v>
+        <v>951</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>711</v>
+      <c r="D131" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G131" s="1">
-        <v>97</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>131</v>
+      <c r="G131" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>925</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>710</v>
+        <v>951</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>711</v>
+      <c r="D132" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G132" s="1">
-        <v>105</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>132</v>
+      <c r="G132" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>936</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>710</v>
+        <v>951</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="11" t="s">
-        <v>711</v>
+      <c r="D133" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G133" s="1">
-        <v>107</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="134" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>133</v>
+      <c r="G133" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>710</v>
+        <v>951</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D134" s="11" t="s">
-        <v>711</v>
+      <c r="D134" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G134" s="1">
-        <v>89</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="135" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>134</v>
+      <c r="G134" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>953</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>710</v>
+        <v>951</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="11" t="s">
-        <v>711</v>
+      <c r="D135" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G135" s="1">
-        <v>114</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="J135" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="136" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>135</v>
+      <c r="G135" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>954</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>710</v>
+        <v>951</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="11" t="s">
-        <v>711</v>
+      <c r="D136" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G136" s="1">
-        <v>485</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="J136" s="7" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="137" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>136</v>
+      <c r="G136" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>955</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>710</v>
+        <v>951</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="11" t="s">
-        <v>711</v>
+      <c r="D137" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G137" s="1">
-        <v>458</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="I137" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="J137" s="7" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="138" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>137</v>
+      <c r="G137" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>907</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>710</v>
+        <v>951</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D138" s="11" t="s">
-        <v>711</v>
+      <c r="D138" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G138" s="1">
-        <v>287</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="J138" s="7" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="139" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>138</v>
+      <c r="G138" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>710</v>
+        <v>951</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D139" s="11" t="s">
-        <v>711</v>
+      <c r="D139" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G139" s="1">
-        <v>205</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="I139" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="J139" s="7" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="140" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>139</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="C140" s="9" t="s">
+      <c r="G139" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="E140" s="9" t="s">
+      <c r="D140" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="F140" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G140" s="9">
-        <v>245</v>
-      </c>
-      <c r="H140" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="I140" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="J140" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="K140" s="14"/>
-      <c r="L140" s="14"/>
-      <c r="M140" s="14"/>
-      <c r="N140" s="14"/>
-      <c r="O140" s="14"/>
-      <c r="P140" s="14"/>
-      <c r="Q140" s="14"/>
-      <c r="R140" s="14"/>
-      <c r="S140" s="14"/>
-      <c r="T140" s="14"/>
-      <c r="U140" s="14"/>
-      <c r="V140" s="14"/>
-      <c r="W140" s="14"/>
-      <c r="X140" s="14"/>
-      <c r="Y140" s="14"/>
-      <c r="Z140" s="14"/>
-      <c r="AA140" s="14"/>
-      <c r="AB140" s="14"/>
-    </row>
-    <row r="141" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>140</v>
+      <c r="G140" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>961</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>752</v>
+        <v>959</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D141" s="11" t="s">
-        <v>753</v>
+      <c r="D141" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>155</v>
@@ -7471,31 +7711,31 @@
       <c r="F141" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G141" s="1">
-        <v>457</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="I141" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="142" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>141</v>
+      <c r="G141" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>963</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>752</v>
+        <v>959</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="11" t="s">
-        <v>753</v>
+      <c r="D142" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>157</v>
@@ -7503,31 +7743,31 @@
       <c r="F142" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G142" s="1">
-        <v>365</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="J142" s="7" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="143" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>142</v>
+      <c r="G142" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>965</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>752</v>
+        <v>959</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="11" t="s">
-        <v>753</v>
+      <c r="D143" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>159</v>
@@ -7535,31 +7775,31 @@
       <c r="F143" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G143" s="1">
-        <v>392</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="J143" s="7" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="144" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>143</v>
+      <c r="G143" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>967</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>752</v>
+        <v>959</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D144" s="11" t="s">
-        <v>753</v>
+      <c r="D144" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>161</v>
@@ -7567,31 +7807,31 @@
       <c r="F144" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G144" s="1">
-        <v>477</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="I144" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="J144" s="7" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>144</v>
+      <c r="G144" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>906</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>752</v>
+        <v>959</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D145" s="11" t="s">
-        <v>753</v>
+      <c r="D145" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>163</v>
@@ -7599,31 +7839,31 @@
       <c r="F145" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G145" s="1">
-        <v>229</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I145" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="J145" s="7" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>145</v>
+      <c r="G145" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>805</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>752</v>
+        <v>959</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D146" s="11" t="s">
-        <v>753</v>
+      <c r="D146" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>165</v>
@@ -7631,31 +7871,31 @@
       <c r="F146" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G146" s="1">
-        <v>253</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="I146" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="J146" s="7" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>146</v>
+      <c r="G146" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>970</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>752</v>
+        <v>959</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="11" t="s">
-        <v>753</v>
+      <c r="D147" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>167</v>
@@ -7663,31 +7903,31 @@
       <c r="F147" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G147" s="1">
-        <v>241</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="I147" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="J147" s="7" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>147</v>
+      <c r="G147" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>752</v>
+        <v>959</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="11" t="s">
-        <v>753</v>
+      <c r="D148" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>169</v>
@@ -7695,31 +7935,31 @@
       <c r="F148" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G148" s="1">
-        <v>251</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="I148" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="J148" s="7" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>148</v>
+      <c r="G148" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>972</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>752</v>
+        <v>959</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="11" t="s">
-        <v>753</v>
+      <c r="D149" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>171</v>
@@ -7727,156 +7967,18 @@
       <c r="F149" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G149" s="1">
-        <v>274</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="I149" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="J149" s="7" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="J150" s="19"/>
-    </row>
-    <row r="151" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="J151" s="19"/>
-    </row>
-    <row r="152" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="J152" s="19"/>
-    </row>
-    <row r="153" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="J153" s="19"/>
-    </row>
-    <row r="154" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="J154" s="19"/>
-    </row>
-    <row r="155" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="J155" s="19"/>
-    </row>
-    <row r="156" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="J156" s="19"/>
-    </row>
-    <row r="157" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="J157" s="19"/>
-    </row>
-    <row r="158" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="J158" s="19"/>
-    </row>
-    <row r="159" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="J159" s="19"/>
-    </row>
-    <row r="160" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="J160" s="19"/>
-    </row>
-    <row r="161" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="J161" s="19"/>
-    </row>
-    <row r="162" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="J162" s="19"/>
-    </row>
-    <row r="163" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="J163" s="19"/>
-    </row>
-    <row r="164" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="J164" s="19"/>
-    </row>
-    <row r="165" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="J165" s="19"/>
-    </row>
-    <row r="166" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="J166" s="19"/>
-    </row>
-    <row r="167" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="J167" s="19"/>
-    </row>
-    <row r="168" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="J168" s="19"/>
-    </row>
-    <row r="169" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="3:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="G149" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>770</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
